--- a/results/I3_N5_M3_T45_C150_DepLowerLeft_s3_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepLowerLeft_s3_mean_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2590000629425049</v>
+        <v>0.1600000858306885</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.38038881919395</v>
+        <v>41.38038881919396</v>
       </c>
     </row>
     <row r="7">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>42.53018219295431</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>39.55844691287497</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38.42811290419564</v>
+        <v>36.2357036491481</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38.31694680553867</v>
+        <v>37.20122397051249</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>64.38000000001377</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01900000000389</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>41.23200000000725</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>115.2100000000356</v>
+        <v>121.2</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>136.1390000000047</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>64.38000000001375</v>
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>136.1390000000047</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>115.2100000000395</v>
+        <v>121.2</v>
       </c>
     </row>
   </sheetData>
